--- a/Optimisation/dataset/demand.xlsx
+++ b/Optimisation/dataset/demand.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\62- Other Projects\24- Articles\13- Supply Chain Optimization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/daniel_tan3_sg_ey_com/Documents/Documents/GitHub/WalmartSales/Optimisation/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_DD62FEF19407B06F9119148310ABC52E3FB092F8" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7C69803B-35F8-4BB2-909C-7167B9EDD585}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8904"/>
+    <workbookView xWindow="32040" yWindow="5775" windowWidth="17235" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -26,34 +27,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
+    <t>DMZ1</t>
+  </si>
+  <si>
+    <t>DMZ2</t>
+  </si>
+  <si>
+    <t>DMZ3</t>
+  </si>
+  <si>
+    <t>DMZ4</t>
+  </si>
+  <si>
+    <t>DMZ5</t>
+  </si>
+  <si>
+    <t>DMZ</t>
+  </si>
+  <si>
     <t>Demand</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Germany</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>Brazil</t>
-  </si>
-  <si>
-    <t>India</t>
-  </si>
-  <si>
-    <t>(Units/month)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -124,23 +125,22 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Milliers" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -418,64 +418,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.26953125" customWidth="1"/>
+    <col min="2" max="2" width="14.08984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B2" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B3" s="3" t="s">
+      <c r="B2" s="3">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
-        <v>2800000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B4" s="3" t="s">
+      <c r="B3" s="3">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="4">
-        <v>90000</v>
-      </c>
-    </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B5" s="3" t="s">
+      <c r="B4" s="3">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="4">
-        <v>1700000</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B6" s="3" t="s">
+      <c r="B5" s="3">
+        <v>145000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4">
-        <v>145000</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="4">
+      <c r="B6" s="3">
         <v>160000</v>
       </c>
     </row>

--- a/Optimisation/dataset/demand.xlsx
+++ b/Optimisation/dataset/demand.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://people.ey.com/personal/daniel_tan3_sg_ey_com/Documents/Documents/GitHub/WalmartSales/Optimisation/dataset/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_DD62FEF19407B06F9119148310ABC52E3FB092F8" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7C69803B-35F8-4BB2-909C-7167B9EDD585}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="11_DD62FEF19407B06F9119148310ABC52E3FB092F8" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{803BA48C-F323-4513-AFEF-7CA32C20088F}"/>
   <bookViews>
-    <workbookView xWindow="32040" yWindow="5775" windowWidth="17235" windowHeight="9645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29085" yWindow="0" windowWidth="22485" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -52,9 +52,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0\ _€_-;\-* #,##0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -135,7 +134,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -422,7 +421,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
